--- a/StructureDefinition-dk-core-patient.xlsx
+++ b/StructureDefinition-dk-core-patient.xlsx
@@ -5384,7 +5384,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -5498,7 +5498,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
